--- a/academias/Administración de Recursos Humanos - Estadisticos 20211.xlsx
+++ b/academias/Administración de Recursos Humanos - Estadisticos 20211.xlsx
@@ -714,22 +714,25 @@
         <v>35</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>28.57</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,22 +749,25 @@
         <v>37</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>10.81</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>89.19</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>89.19</v>
       </c>
     </row>
   </sheetData>
@@ -1348,22 +1354,25 @@
         <v>35</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>28.57</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1380,22 +1389,25 @@
         <v>37</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>10.81</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>89.19</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>89.19</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Administración de Recursos Humanos - Estadisticos 20211.xlsx
+++ b/academias/Administración de Recursos Humanos - Estadisticos 20211.xlsx
@@ -536,28 +536,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>25</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>71.43000000000001</v>
+        <v>69.44</v>
       </c>
       <c r="H3">
-        <v>28.57</v>
+        <v>30.56</v>
       </c>
       <c r="I3">
         <v>8.5</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>28.57</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -641,19 +641,19 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6">
-        <v>85.70999999999999</v>
+        <v>86.11</v>
       </c>
       <c r="H6">
-        <v>14.29</v>
+        <v>13.89</v>
       </c>
       <c r="I6">
         <v>8.1</v>
@@ -749,25 +749,25 @@
         <v>37</v>
       </c>
       <c r="E9">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>62.16</v>
+      </c>
+      <c r="H9">
+        <v>37.84</v>
+      </c>
+      <c r="I9">
+        <v>6.9</v>
+      </c>
+      <c r="J9">
         <v>4</v>
       </c>
-      <c r="F9">
-        <v>33</v>
-      </c>
-      <c r="G9">
+      <c r="K9">
         <v>10.81</v>
-      </c>
-      <c r="H9">
-        <v>89.19</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>33</v>
-      </c>
-      <c r="K9">
-        <v>89.19</v>
       </c>
     </row>
   </sheetData>
@@ -865,13 +865,13 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>100</v>
       </c>
       <c r="J3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -961,13 +961,13 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>100</v>
       </c>
       <c r="J6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -1176,28 +1176,28 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>25</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>71.43000000000001</v>
+        <v>69.44</v>
       </c>
       <c r="H3">
-        <v>28.57</v>
+        <v>30.56</v>
       </c>
       <c r="I3">
         <v>8.5</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>28.57</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1281,19 +1281,19 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6">
-        <v>85.70999999999999</v>
+        <v>86.11</v>
       </c>
       <c r="H6">
-        <v>14.29</v>
+        <v>13.89</v>
       </c>
       <c r="I6">
         <v>8.1</v>
@@ -1389,25 +1389,25 @@
         <v>37</v>
       </c>
       <c r="E9">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>62.16</v>
+      </c>
+      <c r="H9">
+        <v>37.84</v>
+      </c>
+      <c r="I9">
+        <v>6.9</v>
+      </c>
+      <c r="J9">
         <v>4</v>
       </c>
-      <c r="F9">
-        <v>33</v>
-      </c>
-      <c r="G9">
+      <c r="K9">
         <v>10.81</v>
-      </c>
-      <c r="H9">
-        <v>89.19</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>33</v>
-      </c>
-      <c r="K9">
-        <v>89.19</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Administración de Recursos Humanos - Estadisticos 20211.xlsx
+++ b/academias/Administración de Recursos Humanos - Estadisticos 20211.xlsx
@@ -504,25 +504,25 @@
         <v>37</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>64.86</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="H2">
-        <v>35.14</v>
+        <v>32.43</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>35.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1144,25 +1144,25 @@
         <v>37</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>64.86</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="H2">
-        <v>35.14</v>
+        <v>32.43</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>35.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
